--- a/junction/restructured_chr_20220607.xlsx
+++ b/junction/restructured_chr_20220607.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wendy/Documents/ASY1_manuscript/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wendy/Documents/ASY1_manuscript/junction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1D6004-830B-8944-8A5B-D55E99976FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7DBC10-93C4-6D4F-81E2-24DB2F7AC5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="2800" windowWidth="21000" windowHeight="11940" activeTab="1" xr2:uid="{3BB75135-5140-5F44-8B9F-8C7C10C2605E}"/>
+    <workbookView xWindow="2460" yWindow="2780" windowWidth="21000" windowHeight="11940" activeTab="1" xr2:uid="{3BB75135-5140-5F44-8B9F-8C7C10C2605E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Instruction" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="535">
   <si>
     <t>Chr1_74736</t>
   </si>
@@ -378,9 +377,6 @@
     <t>Chr1_15607610</t>
   </si>
   <si>
-    <t>End of Chr1</t>
-  </si>
-  <si>
     <t>Chr1_11046861</t>
   </si>
   <si>
@@ -1395,9 +1391,6 @@
     <t>Chr2_2656360</t>
   </si>
   <si>
-    <t>(ring chr)</t>
-  </si>
-  <si>
     <t>Chr2_6658917</t>
   </si>
   <si>
@@ -1416,44 +1409,245 @@
     <t>Chr3_12054883</t>
   </si>
   <si>
-    <t>13_jun</t>
-  </si>
-  <si>
-    <t>5_jun</t>
-  </si>
-  <si>
-    <t>7_jun</t>
-  </si>
-  <si>
-    <t>2_jun</t>
-  </si>
-  <si>
-    <t>4_jun</t>
-  </si>
-  <si>
-    <t>6_jun</t>
-  </si>
-  <si>
-    <t>8_jun</t>
-  </si>
-  <si>
-    <t>10_jun</t>
-  </si>
-  <si>
-    <t>3_jun</t>
-  </si>
-  <si>
-    <t>11_jun</t>
-  </si>
-  <si>
-    <t>9_jun</t>
+    <t>Chr1_103308</t>
+  </si>
+  <si>
+    <t>Chr1_5000204</t>
+  </si>
+  <si>
+    <t>Chr1_170065</t>
+  </si>
+  <si>
+    <t>Chr1_11606615</t>
+  </si>
+  <si>
+    <t>Chr1_193815</t>
+  </si>
+  <si>
+    <t>Chr1_3506044</t>
+  </si>
+  <si>
+    <t>Chr1_1595066</t>
+  </si>
+  <si>
+    <t>Chr1_201351</t>
+  </si>
+  <si>
+    <t>Chr1_211851</t>
+  </si>
+  <si>
+    <t>Chr1_13142017</t>
+  </si>
+  <si>
+    <t>Chr1_681656</t>
+  </si>
+  <si>
+    <t>Chr1_465599</t>
+  </si>
+  <si>
+    <t>Chr1_7196899</t>
+  </si>
+  <si>
+    <t>Chr1_627789</t>
+  </si>
+  <si>
+    <t>Chr1_9119092</t>
+  </si>
+  <si>
+    <t>Chr1_1117668</t>
+  </si>
+  <si>
+    <t>Chr1_2939512</t>
+  </si>
+  <si>
+    <t>Chr1_1186379</t>
+  </si>
+  <si>
+    <t>Chr1_3356715</t>
+  </si>
+  <si>
+    <t>Chr1_1544701</t>
+  </si>
+  <si>
+    <t>Chr1_1661091</t>
+  </si>
+  <si>
+    <t>Chr1_5071002</t>
+  </si>
+  <si>
+    <t>Chr1_1679911</t>
+  </si>
+  <si>
+    <t>Chr1_5340255</t>
+  </si>
+  <si>
+    <t>Chr1_5315118</t>
+  </si>
+  <si>
+    <t>Chr1_1821717</t>
+  </si>
+  <si>
+    <t>Chr1_1947383</t>
+  </si>
+  <si>
+    <t>Chr1_6489851</t>
+  </si>
+  <si>
+    <t>Chr1_4702035</t>
+  </si>
+  <si>
+    <t>Chr1_2022563</t>
+  </si>
+  <si>
+    <t>Chr1_9626757</t>
+  </si>
+  <si>
+    <t>Chr1_2036296</t>
+  </si>
+  <si>
+    <t>Chr1_5446868</t>
+  </si>
+  <si>
+    <t>Chr1_2115506</t>
+  </si>
+  <si>
+    <t>Chr1_11903838</t>
+  </si>
+  <si>
+    <t>Chr1_2231456</t>
+  </si>
+  <si>
+    <t>Chr1_9555136</t>
+  </si>
+  <si>
+    <t>Chr1_4127244</t>
+  </si>
+  <si>
+    <t>Chr1_11712131</t>
+  </si>
+  <si>
+    <t>Chr1_4146677</t>
+  </si>
+  <si>
+    <t>Chr1_4189999</t>
+  </si>
+  <si>
+    <t>Chr1_10946028</t>
+  </si>
+  <si>
+    <t>Chr1_4548256</t>
+  </si>
+  <si>
+    <t>Chr1_8572887</t>
+  </si>
+  <si>
+    <t>Chr1_9847023</t>
+  </si>
+  <si>
+    <t>Chr1_4613232</t>
+  </si>
+  <si>
+    <t>Chr1_10247851</t>
+  </si>
+  <si>
+    <t>Chr1_4806523</t>
+  </si>
+  <si>
+    <t>Chr1_5249834</t>
+  </si>
+  <si>
+    <t>Chr1_9731291</t>
+  </si>
+  <si>
+    <t>Chr1_5548113</t>
+  </si>
+  <si>
+    <t>Chr1_7906772</t>
+  </si>
+  <si>
+    <t>Chr1_7591856</t>
+  </si>
+  <si>
+    <t>Chr1_6057261</t>
+  </si>
+  <si>
+    <t>Chr1_6082170</t>
+  </si>
+  <si>
+    <t>Chr1_10469827</t>
+  </si>
+  <si>
+    <t>Chr1_6488472</t>
+  </si>
+  <si>
+    <t>Chr1_7043902</t>
+  </si>
+  <si>
+    <t>Chr1_9421011</t>
+  </si>
+  <si>
+    <t>Chr1_7684160</t>
+  </si>
+  <si>
+    <t>Chr1_8284367</t>
+  </si>
+  <si>
+    <t>Chr1_9003576</t>
+  </si>
+  <si>
+    <t>Chr1_9889617</t>
+  </si>
+  <si>
+    <t>Chr1_8302591</t>
+  </si>
+  <si>
+    <t>Chr4_2596990</t>
+  </si>
+  <si>
+    <t>Chr4_2602649</t>
+  </si>
+  <si>
+    <t>Chr4_18268459</t>
+  </si>
+  <si>
+    <t>Chr4_12809176</t>
+  </si>
+  <si>
+    <t>Chr4_12809217</t>
+  </si>
+  <si>
+    <t>Chr4_12809272</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>increase from left to right</t>
+  </si>
+  <si>
+    <t>decrease from left to right</t>
+  </si>
+  <si>
+    <t>novel DNA junction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each rearranged fragment is showed in a row. The breakpoint position, orientation and DNA junction are represented with symbols. </t>
+  </si>
+  <si>
+    <t>Collection of all the rearranged fragments</t>
+  </si>
+  <si>
+    <t>Instruction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1468,19 +1662,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1493,7 +1689,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1504,16 +1700,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1828,2513 +2029,3333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8FF6AF-FBA8-EF47-81E8-943A2C482210}">
-  <dimension ref="A1:AL173"/>
+  <dimension ref="A1:AN272"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8:AL8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B271" sqref="B271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="44" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="45" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>26</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>28</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="V5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>57</v>
       </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>55</v>
       </c>
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>53</v>
       </c>
-      <c r="L8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>35</v>
       </c>
-      <c r="O8" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>38</v>
       </c>
-      <c r="R8" t="s">
-        <v>2</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>40</v>
       </c>
-      <c r="U8" t="s">
-        <v>2</v>
-      </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>42</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>5</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>44</v>
       </c>
-      <c r="AA8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AB8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>46</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>48</v>
       </c>
-      <c r="AG8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AH8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>50</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>5</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AL8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>69</v>
       </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>66</v>
       </c>
-      <c r="F14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>68</v>
       </c>
-      <c r="I14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>72</v>
       </c>
-      <c r="L14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="P14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>82</v>
       </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>80</v>
       </c>
-      <c r="F17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>78</v>
       </c>
-      <c r="I17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>87</v>
       </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>84</v>
       </c>
-      <c r="F20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>86</v>
       </c>
-      <c r="I20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>90</v>
       </c>
-      <c r="L20" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>8</v>
       </c>
-      <c r="B22" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>98</v>
       </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>96</v>
       </c>
-      <c r="F23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>94</v>
       </c>
-      <c r="I23" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>100</v>
       </c>
-      <c r="L23" t="s">
-        <v>2</v>
-      </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>102</v>
       </c>
-      <c r="O23" t="s">
-        <v>2</v>
-      </c>
-      <c r="P23" s="1" t="s">
+      <c r="P23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>9</v>
       </c>
-      <c r="B25" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>106</v>
       </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>108</v>
       </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>110</v>
       </c>
-      <c r="I26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>112</v>
       </c>
-      <c r="L26" t="s">
-        <v>2</v>
-      </c>
       <c r="M26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10</v>
       </c>
-      <c r="B28" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
         <v>114</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="F29" t="s">
         <v>116</v>
       </c>
-      <c r="E29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>11</v>
       </c>
-      <c r="B31" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" t="s">
         <v>118</v>
       </c>
-      <c r="E32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>12</v>
       </c>
-      <c r="B34" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
         <v>122</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="F35" t="s">
         <v>124</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="I35" t="s">
         <v>126</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="L35" t="s">
         <v>128</v>
       </c>
-      <c r="K35" t="s">
+      <c r="M35" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="L35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M35" s="1" t="s">
+      <c r="O35" t="s">
         <v>130</v>
       </c>
-      <c r="N35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="P35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>13</v>
       </c>
-      <c r="B37" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" t="s">
         <v>132</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="F38" t="s">
         <v>134</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="I38" t="s">
         <v>136</v>
       </c>
-      <c r="H38" t="s">
+      <c r="J38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I38" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" s="1" t="s">
+      <c r="L38" t="s">
         <v>138</v>
       </c>
-      <c r="K38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>14</v>
       </c>
-      <c r="B40" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" t="s">
         <v>140</v>
       </c>
-      <c r="E41" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>15</v>
       </c>
-      <c r="B43" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I44" t="s">
+        <v>151</v>
+      </c>
+      <c r="J44" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L44" t="s">
+        <v>149</v>
+      </c>
+      <c r="M44" t="s">
+        <v>2</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="O44" t="s">
+        <v>147</v>
+      </c>
+      <c r="P44" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="R44" t="s">
+        <v>144</v>
+      </c>
+      <c r="S44" t="s">
+        <v>2</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="U44" t="s">
+        <v>146</v>
+      </c>
+      <c r="V44" t="s">
+        <v>2</v>
+      </c>
+      <c r="W44" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B44" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E44" t="s">
-        <v>154</v>
-      </c>
-      <c r="F44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H44" t="s">
-        <v>152</v>
-      </c>
-      <c r="I44" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K44" t="s">
-        <v>150</v>
-      </c>
-      <c r="L44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N44" t="s">
-        <v>148</v>
-      </c>
-      <c r="O44" t="s">
-        <v>2</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>145</v>
-      </c>
-      <c r="R44" t="s">
-        <v>2</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="T44" t="s">
-        <v>147</v>
-      </c>
-      <c r="U44" t="s">
-        <v>2</v>
-      </c>
-      <c r="V44" s="1" t="s">
+      <c r="X44" t="s">
         <v>158</v>
       </c>
-      <c r="W44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>16</v>
       </c>
-      <c r="B46" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" t="s">
         <v>160</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="F47" t="s">
         <v>162</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F47" t="s">
-        <v>2</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="I47" t="s">
         <v>164</v>
       </c>
-      <c r="H47" t="s">
+      <c r="J47" t="s">
+        <v>2</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="I47" t="s">
-        <v>2</v>
-      </c>
-      <c r="J47" s="1" t="s">
+      <c r="L47" t="s">
         <v>166</v>
       </c>
-      <c r="K47" t="s">
+      <c r="M47" t="s">
+        <v>6</v>
+      </c>
+      <c r="N47" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L47" t="s">
-        <v>6</v>
-      </c>
-      <c r="M47" s="1" t="s">
+      <c r="O47" t="s">
         <v>168</v>
       </c>
-      <c r="N47" t="s">
+      <c r="P47" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="O47" t="s">
-        <v>2</v>
-      </c>
-      <c r="P47" s="1" t="s">
+      <c r="R47" t="s">
         <v>170</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="S47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>17</v>
+      </c>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F50" t="s">
+        <v>187</v>
+      </c>
+      <c r="G50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I50" t="s">
+        <v>185</v>
+      </c>
+      <c r="J50" t="s">
+        <v>2</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L50" t="s">
+        <v>183</v>
+      </c>
+      <c r="M50" t="s">
+        <v>2</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="O50" t="s">
+        <v>181</v>
+      </c>
+      <c r="P50" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="R50" t="s">
+        <v>179</v>
+      </c>
+      <c r="S50" t="s">
+        <v>6</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="U50" t="s">
+        <v>177</v>
+      </c>
+      <c r="V50" t="s">
+        <v>2</v>
+      </c>
+      <c r="W50" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="X50" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z50" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC50" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>17</v>
-      </c>
-      <c r="B49" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B50" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E50" t="s">
-        <v>188</v>
-      </c>
-      <c r="F50" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H50" t="s">
-        <v>186</v>
-      </c>
-      <c r="I50" t="s">
-        <v>2</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K50" t="s">
-        <v>184</v>
-      </c>
-      <c r="L50" t="s">
-        <v>2</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N50" t="s">
-        <v>182</v>
-      </c>
-      <c r="O50" t="s">
-        <v>6</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>180</v>
-      </c>
-      <c r="R50" t="s">
-        <v>6</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="T50" t="s">
-        <v>178</v>
-      </c>
-      <c r="U50" t="s">
-        <v>2</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="W50" t="s">
-        <v>176</v>
-      </c>
-      <c r="X50" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y50" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB50" s="1" t="s">
+      <c r="AD50" t="s">
         <v>172</v>
       </c>
-      <c r="AC50" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>18</v>
       </c>
-      <c r="B52" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F53" t="s">
+        <v>192</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E53" t="s">
-        <v>193</v>
-      </c>
-      <c r="F53" t="s">
-        <v>2</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="I53" t="s">
         <v>196</v>
       </c>
-      <c r="H53" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="J53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>19</v>
       </c>
-      <c r="B55" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C56" t="s">
         <v>198</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C56" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="F56" t="s">
         <v>200</v>
       </c>
-      <c r="E56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>20</v>
       </c>
-      <c r="B58" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" t="s">
+        <v>205</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F59" t="s">
+        <v>203</v>
+      </c>
+      <c r="G59" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I59" t="s">
+        <v>202</v>
+      </c>
+      <c r="J59" t="s">
+        <v>2</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B59" t="s">
-        <v>206</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E59" t="s">
-        <v>204</v>
-      </c>
-      <c r="F59" t="s">
-        <v>2</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H59" t="s">
-        <v>203</v>
-      </c>
-      <c r="I59" t="s">
-        <v>2</v>
-      </c>
-      <c r="J59" s="1" t="s">
+      <c r="L59" t="s">
         <v>208</v>
       </c>
-      <c r="K59" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="M59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>21</v>
       </c>
-      <c r="B61" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B62" t="s">
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E62" t="s">
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>216</v>
       </c>
       <c r="F62" t="s">
-        <v>2</v>
-      </c>
-      <c r="G62" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H62" t="s">
+      <c r="G62" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>214</v>
       </c>
       <c r="I62" t="s">
-        <v>2</v>
-      </c>
-      <c r="J62" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K62" t="s">
+      <c r="J62" t="s">
+        <v>2</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>212</v>
       </c>
       <c r="L62" t="s">
-        <v>6</v>
-      </c>
-      <c r="M62" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M62" t="s">
+        <v>6</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="O62" t="s">
         <v>210</v>
       </c>
-      <c r="N62" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="P62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>22</v>
       </c>
-      <c r="B64" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>19</v>
       </c>
-      <c r="C65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F65" t="s">
         <v>220</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F65" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="1" t="s">
+      <c r="I65" t="s">
         <v>222</v>
       </c>
-      <c r="H65" t="s">
+      <c r="J65" t="s">
+        <v>2</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="I65" t="s">
-        <v>2</v>
-      </c>
-      <c r="J65" s="1" t="s">
+      <c r="L65" t="s">
         <v>224</v>
       </c>
-      <c r="K65" t="s">
+      <c r="M65" t="s">
+        <v>2</v>
+      </c>
+      <c r="N65" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="L65" t="s">
-        <v>2</v>
-      </c>
-      <c r="M65" s="1" t="s">
+      <c r="O65" t="s">
         <v>226</v>
       </c>
-      <c r="N65" t="s">
+      <c r="P65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>23</v>
+      </c>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" t="s">
+        <v>239</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F68" t="s">
+        <v>237</v>
+      </c>
+      <c r="G68" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I68" t="s">
+        <v>235</v>
+      </c>
+      <c r="J68" t="s">
+        <v>2</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L68" t="s">
+        <v>233</v>
+      </c>
+      <c r="M68" t="s">
+        <v>2</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="O68" t="s">
+        <v>231</v>
+      </c>
+      <c r="P68" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="R68" t="s">
+        <v>229</v>
+      </c>
+      <c r="S68" t="s">
+        <v>6</v>
+      </c>
+      <c r="T68" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>23</v>
-      </c>
-      <c r="B67" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="U68" t="s">
+        <v>228</v>
+      </c>
+      <c r="V68" t="s">
+        <v>2</v>
+      </c>
+      <c r="W68" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B68" t="s">
-        <v>240</v>
-      </c>
-      <c r="C68" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E68" t="s">
-        <v>238</v>
-      </c>
-      <c r="F68" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H68" t="s">
-        <v>236</v>
-      </c>
-      <c r="I68" t="s">
-        <v>2</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="K68" t="s">
-        <v>234</v>
-      </c>
-      <c r="L68" t="s">
-        <v>2</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="N68" t="s">
-        <v>232</v>
-      </c>
-      <c r="O68" t="s">
-        <v>6</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>230</v>
-      </c>
-      <c r="R68" t="s">
-        <v>6</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="T68" t="s">
-        <v>229</v>
-      </c>
-      <c r="U68" t="s">
-        <v>2</v>
-      </c>
-      <c r="V68" s="1" t="s">
+      <c r="X68" t="s">
         <v>242</v>
       </c>
-      <c r="W68" t="s">
+      <c r="Y68" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z68" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="X68" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y68" s="1" t="s">
+      <c r="AA68" t="s">
         <v>244</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AB68" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC68" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="AA68" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB68" s="1" t="s">
+      <c r="AD68" t="s">
         <v>246</v>
       </c>
-      <c r="AC68" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>24</v>
       </c>
-      <c r="B70" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C71" t="s">
         <v>248</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C71" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="F71" t="s">
         <v>250</v>
       </c>
-      <c r="E71" t="s">
+      <c r="G71" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F71" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="1" t="s">
+      <c r="I71" t="s">
         <v>252</v>
       </c>
-      <c r="H71" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="J71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>25</v>
       </c>
-      <c r="B73" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C74" t="s">
+        <v>257</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F74" t="s">
+        <v>255</v>
+      </c>
+      <c r="G74" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I74" t="s">
+        <v>254</v>
+      </c>
+      <c r="J74" t="s">
+        <v>2</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B74" t="s">
-        <v>258</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E74" t="s">
-        <v>256</v>
-      </c>
-      <c r="F74" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H74" t="s">
-        <v>255</v>
-      </c>
-      <c r="I74" t="s">
-        <v>2</v>
-      </c>
-      <c r="J74" s="1" t="s">
+      <c r="L74" t="s">
         <v>260</v>
       </c>
-      <c r="K74" t="s">
+      <c r="M74" t="s">
+        <v>2</v>
+      </c>
+      <c r="N74" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="L74" t="s">
-        <v>2</v>
-      </c>
-      <c r="M74" s="1" t="s">
+      <c r="O74" t="s">
         <v>262</v>
       </c>
-      <c r="N74" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="P74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>26</v>
       </c>
-      <c r="B76" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B77" t="s">
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F77" t="s">
         <v>264</v>
       </c>
-      <c r="E77" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>27</v>
       </c>
-      <c r="B79" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C80" t="s">
+        <v>275</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F80" t="s">
+        <v>273</v>
+      </c>
+      <c r="G80" t="s">
+        <v>2</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I80" t="s">
+        <v>271</v>
+      </c>
+      <c r="J80" t="s">
+        <v>2</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L80" t="s">
+        <v>7</v>
+      </c>
+      <c r="M80" t="s">
+        <v>2</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="O80" t="s">
+        <v>268</v>
+      </c>
+      <c r="P80" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q80" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="R80" t="s">
+        <v>270</v>
+      </c>
+      <c r="S80" t="s">
+        <v>6</v>
+      </c>
+      <c r="T80" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B80" t="s">
-        <v>276</v>
-      </c>
-      <c r="C80" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E80" t="s">
-        <v>274</v>
-      </c>
-      <c r="F80" t="s">
-        <v>2</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H80" t="s">
-        <v>272</v>
-      </c>
-      <c r="I80" t="s">
-        <v>2</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K80" t="s">
-        <v>7</v>
-      </c>
-      <c r="L80" t="s">
-        <v>2</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="N80" t="s">
-        <v>269</v>
-      </c>
-      <c r="O80" t="s">
-        <v>2</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>271</v>
-      </c>
-      <c r="R80" t="s">
-        <v>6</v>
-      </c>
-      <c r="S80" s="1" t="s">
+      <c r="U80" t="s">
         <v>278</v>
       </c>
-      <c r="T80" t="s">
+      <c r="V80" t="s">
+        <v>6</v>
+      </c>
+      <c r="W80" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="U80" t="s">
-        <v>6</v>
-      </c>
-      <c r="V80" s="1" t="s">
+      <c r="X80" t="s">
         <v>280</v>
       </c>
-      <c r="W80" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Y80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>28</v>
       </c>
-      <c r="B82" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C83" t="s">
         <v>282</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C83" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="F83" t="s">
         <v>284</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
+        <v>2</v>
+      </c>
+      <c r="H83" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="F83" t="s">
-        <v>2</v>
-      </c>
-      <c r="G83" s="1" t="s">
+      <c r="I83" t="s">
         <v>286</v>
       </c>
-      <c r="H83" t="s">
+      <c r="J83" t="s">
+        <v>6</v>
+      </c>
+      <c r="K83" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="I83" t="s">
-        <v>6</v>
-      </c>
-      <c r="J83" s="1" t="s">
+      <c r="L83" t="s">
         <v>288</v>
       </c>
-      <c r="K83" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="M83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>29</v>
       </c>
-      <c r="B85" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C86" t="s">
+        <v>291</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F86" t="s">
+        <v>290</v>
+      </c>
+      <c r="G86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>30</v>
+      </c>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C89" t="s">
+        <v>307</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F89" t="s">
+        <v>305</v>
+      </c>
+      <c r="G89" t="s">
+        <v>2</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="I89" t="s">
+        <v>303</v>
+      </c>
+      <c r="J89" t="s">
+        <v>6</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="L89" t="s">
+        <v>301</v>
+      </c>
+      <c r="M89" t="s">
+        <v>2</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="O89" t="s">
+        <v>299</v>
+      </c>
+      <c r="P89" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q89" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="R89" t="s">
+        <v>297</v>
+      </c>
+      <c r="S89" t="s">
+        <v>6</v>
+      </c>
+      <c r="T89" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="U89" t="s">
+        <v>295</v>
+      </c>
+      <c r="V89" t="s">
+        <v>2</v>
+      </c>
+      <c r="W89" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="X89" t="s">
         <v>293</v>
       </c>
-      <c r="B86" t="s">
-        <v>292</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E86" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
-        <v>30</v>
-      </c>
-      <c r="B88" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B89" t="s">
-        <v>308</v>
-      </c>
-      <c r="C89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E89" t="s">
-        <v>306</v>
-      </c>
-      <c r="F89" t="s">
-        <v>2</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H89" t="s">
-        <v>304</v>
-      </c>
-      <c r="I89" t="s">
-        <v>6</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="K89" t="s">
-        <v>302</v>
-      </c>
-      <c r="L89" t="s">
-        <v>2</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="N89" t="s">
-        <v>300</v>
-      </c>
-      <c r="O89" t="s">
-        <v>6</v>
-      </c>
-      <c r="P89" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>298</v>
-      </c>
-      <c r="R89" t="s">
-        <v>6</v>
-      </c>
-      <c r="S89" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="T89" t="s">
-        <v>296</v>
-      </c>
-      <c r="U89" t="s">
-        <v>2</v>
-      </c>
-      <c r="V89" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="W89" t="s">
-        <v>294</v>
-      </c>
-      <c r="X89" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y89" s="1" t="s">
+      <c r="Y89" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z89" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA89" t="s">
         <v>436</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AB89" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC89" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="AA89" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB89" s="1" t="s">
+      <c r="AD89" t="s">
         <v>438</v>
       </c>
-      <c r="AC89" t="s">
+      <c r="AE89" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF89" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="AD89" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE89" s="1" t="s">
+      <c r="AG89" t="s">
         <v>440</v>
       </c>
-      <c r="AF89" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AH89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>31</v>
       </c>
-      <c r="B91" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B92" t="s">
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>312</v>
       </c>
       <c r="C92" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F92" t="s">
         <v>310</v>
       </c>
-      <c r="E92" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>32</v>
       </c>
-      <c r="B94" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B95" t="s">
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>316</v>
       </c>
       <c r="C95" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F95" t="s">
         <v>314</v>
       </c>
-      <c r="E95" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>33</v>
       </c>
-      <c r="B97" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B98" t="s">
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>320</v>
       </c>
       <c r="C98" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F98" t="s">
         <v>318</v>
       </c>
-      <c r="E98" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>34</v>
       </c>
-      <c r="B100" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C101" t="s">
         <v>322</v>
       </c>
-      <c r="B101" t="s">
+      <c r="D101" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C101" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" s="1" t="s">
+      <c r="F101" t="s">
         <v>324</v>
       </c>
-      <c r="E101" t="s">
+      <c r="G101" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F101" t="s">
-        <v>2</v>
-      </c>
-      <c r="G101" s="1" t="s">
+      <c r="I101" t="s">
         <v>326</v>
       </c>
-      <c r="H101" t="s">
+      <c r="J101" t="s">
+        <v>6</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="I101" t="s">
-        <v>6</v>
-      </c>
-      <c r="J101" s="1" t="s">
+      <c r="L101" t="s">
         <v>328</v>
       </c>
-      <c r="K101" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>35</v>
       </c>
-      <c r="B103" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B104" t="s">
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C104" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F104" t="s">
         <v>330</v>
       </c>
-      <c r="E104" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>36</v>
       </c>
-      <c r="B106" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B107" t="s">
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>336</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F107" t="s">
         <v>334</v>
       </c>
-      <c r="E107" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>37</v>
       </c>
-      <c r="B109" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C110" t="s">
         <v>338</v>
       </c>
-      <c r="B110" t="s">
+      <c r="D110" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C110" t="s">
-        <v>2</v>
-      </c>
-      <c r="D110" s="6" t="s">
+      <c r="F110" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E110" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>38</v>
       </c>
-      <c r="B112" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B113" t="s">
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C113" t="s">
-        <v>2</v>
-      </c>
-      <c r="D113" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E113" t="s">
+      <c r="D113" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" s="4" t="s">
         <v>346</v>
       </c>
       <c r="F113" t="s">
-        <v>2</v>
-      </c>
-      <c r="G113" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="H113" t="s">
+      <c r="G113" t="s">
+        <v>2</v>
+      </c>
+      <c r="H113" s="4" t="s">
         <v>344</v>
       </c>
       <c r="I113" t="s">
-        <v>6</v>
-      </c>
-      <c r="J113" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J113" t="s">
+        <v>6</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="L113" t="s">
         <v>342</v>
       </c>
-      <c r="K113" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>39</v>
       </c>
-      <c r="B115" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C116" t="s">
+        <v>359</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F116" t="s">
+        <v>357</v>
+      </c>
+      <c r="G116" t="s">
+        <v>6</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="I116" t="s">
+        <v>355</v>
+      </c>
+      <c r="J116" t="s">
+        <v>2</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="L116" t="s">
+        <v>353</v>
+      </c>
+      <c r="M116" t="s">
+        <v>2</v>
+      </c>
+      <c r="N116" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="O116" t="s">
+        <v>350</v>
+      </c>
+      <c r="P116" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q116" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="R116" t="s">
+        <v>352</v>
+      </c>
+      <c r="S116" t="s">
+        <v>2</v>
+      </c>
+      <c r="T116" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B116" t="s">
-        <v>360</v>
-      </c>
-      <c r="C116" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E116" t="s">
-        <v>358</v>
-      </c>
-      <c r="F116" t="s">
-        <v>6</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H116" t="s">
-        <v>356</v>
-      </c>
-      <c r="I116" t="s">
-        <v>2</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="K116" t="s">
-        <v>354</v>
-      </c>
-      <c r="L116" t="s">
-        <v>2</v>
-      </c>
-      <c r="M116" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="N116" t="s">
-        <v>351</v>
-      </c>
-      <c r="O116" t="s">
-        <v>2</v>
-      </c>
-      <c r="P116" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>353</v>
-      </c>
-      <c r="R116" t="s">
-        <v>2</v>
-      </c>
-      <c r="S116" s="1" t="s">
+      <c r="U116" t="s">
         <v>362</v>
       </c>
-      <c r="T116" t="s">
+      <c r="V116" t="s">
+        <v>6</v>
+      </c>
+      <c r="W116" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="U116" t="s">
-        <v>6</v>
-      </c>
-      <c r="V116" s="1" t="s">
+      <c r="X116" t="s">
         <v>364</v>
       </c>
-      <c r="W116" t="s">
+      <c r="Y116" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z116" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="X116" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y116" s="1" t="s">
+      <c r="AA116" t="s">
         <v>366</v>
       </c>
-      <c r="Z116" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>40</v>
       </c>
-      <c r="B118" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B119" t="s">
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>370</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F119" t="s">
         <v>368</v>
       </c>
-      <c r="E119" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>41</v>
       </c>
-      <c r="B121" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A122" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B122" s="5" t="s">
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C122" t="s">
-        <v>2</v>
-      </c>
-      <c r="D122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="E122" t="s">
+      <c r="D122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" s="4" t="s">
         <v>378</v>
       </c>
       <c r="F122" t="s">
-        <v>6</v>
-      </c>
-      <c r="G122" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="H122" t="s">
+      <c r="G122" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="4" t="s">
         <v>376</v>
       </c>
       <c r="I122" t="s">
-        <v>6</v>
-      </c>
-      <c r="J122" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="K122" t="s">
+      <c r="J122" t="s">
+        <v>6</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>374</v>
       </c>
       <c r="L122" t="s">
-        <v>6</v>
-      </c>
-      <c r="M122" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="M122" t="s">
+        <v>6</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="O122" t="s">
         <v>372</v>
       </c>
-      <c r="N122" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="P122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>42</v>
       </c>
-      <c r="B124" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B125" t="s">
+    </row>
+    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>388</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
-      </c>
-      <c r="D125" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E125" t="s">
+      <c r="D125" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="4" t="s">
         <v>386</v>
       </c>
       <c r="F125" t="s">
-        <v>6</v>
-      </c>
-      <c r="G125" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="H125" t="s">
+      <c r="G125" t="s">
+        <v>6</v>
+      </c>
+      <c r="H125" s="4" t="s">
         <v>384</v>
       </c>
       <c r="I125" t="s">
-        <v>2</v>
-      </c>
-      <c r="J125" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J125" t="s">
+        <v>2</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="L125" t="s">
         <v>382</v>
       </c>
-      <c r="K125" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>43</v>
       </c>
-      <c r="B127" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B128" t="s">
+    </row>
+    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>392</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F128" t="s">
         <v>390</v>
       </c>
-      <c r="E128" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>44</v>
       </c>
-      <c r="B130" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B131" t="s">
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>398</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E131" t="s">
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="4" t="s">
         <v>396</v>
       </c>
       <c r="F131" t="s">
-        <v>2</v>
-      </c>
-      <c r="G131" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G131" t="s">
+        <v>2</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I131" t="s">
         <v>394</v>
       </c>
-      <c r="H131" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>45</v>
       </c>
-      <c r="B133" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C134" t="s">
         <v>400</v>
       </c>
-      <c r="B134" t="s">
+      <c r="D134" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C134" t="s">
-        <v>2</v>
-      </c>
-      <c r="D134" s="1" t="s">
+      <c r="F134" t="s">
         <v>402</v>
       </c>
-      <c r="E134" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>46</v>
       </c>
-      <c r="B136" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C137" t="s">
         <v>404</v>
       </c>
-      <c r="B137" t="s">
+      <c r="D137" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C137" t="s">
-        <v>2</v>
-      </c>
-      <c r="D137" s="1" t="s">
+      <c r="F137" t="s">
         <v>406</v>
       </c>
-      <c r="E137" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>47</v>
       </c>
-      <c r="B139" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C140" t="s">
         <v>408</v>
       </c>
-      <c r="B140" t="s">
+      <c r="D140" t="s">
+        <v>2</v>
+      </c>
+      <c r="E140" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C140" t="s">
-        <v>2</v>
-      </c>
-      <c r="D140" s="1" t="s">
+      <c r="F140" t="s">
         <v>410</v>
       </c>
-      <c r="E140" t="s">
+      <c r="G140" t="s">
+        <v>2</v>
+      </c>
+      <c r="H140" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="F140" t="s">
-        <v>2</v>
-      </c>
-      <c r="G140" s="1" t="s">
+      <c r="I140" t="s">
         <v>412</v>
       </c>
-      <c r="H140" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>48</v>
       </c>
-      <c r="B142" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B143" t="s">
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>416</v>
       </c>
       <c r="C143" t="s">
-        <v>2</v>
-      </c>
-      <c r="D143" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F143" t="s">
         <v>414</v>
       </c>
-      <c r="E143" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>49</v>
       </c>
-      <c r="B145" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C146" t="s">
         <v>418</v>
       </c>
-      <c r="B146" t="s">
+      <c r="D146" t="s">
+        <v>2</v>
+      </c>
+      <c r="E146" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C146" t="s">
-        <v>2</v>
-      </c>
-      <c r="D146" s="1" t="s">
+      <c r="F146" t="s">
         <v>420</v>
       </c>
-      <c r="E146" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>50</v>
       </c>
-      <c r="B148" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C149" t="s">
         <v>422</v>
       </c>
-      <c r="B149" t="s">
+      <c r="D149" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C149" t="s">
-        <v>2</v>
-      </c>
-      <c r="D149" s="1" t="s">
+      <c r="F149" t="s">
         <v>424</v>
       </c>
-      <c r="E149" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>51</v>
       </c>
-      <c r="B151" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B152" t="s">
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>428</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
-      </c>
-      <c r="D152" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D152" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="F152" t="s">
         <v>426</v>
       </c>
-      <c r="E152" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G152" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>52</v>
       </c>
-      <c r="B154" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B155" t="s">
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>434</v>
       </c>
       <c r="C155" t="s">
-        <v>6</v>
-      </c>
-      <c r="D155" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E155" t="s">
+      <c r="D155" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" s="4" t="s">
         <v>432</v>
       </c>
       <c r="F155" t="s">
-        <v>2</v>
-      </c>
-      <c r="G155" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="G155" t="s">
+        <v>2</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I155" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="H155" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="I155" t="s">
-        <v>2</v>
-      </c>
-      <c r="J155" s="1" t="s">
+      <c r="J155" t="s">
+        <v>2</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K155" t="s">
+      <c r="L155" t="s">
         <v>4</v>
       </c>
-      <c r="L155" t="s">
-        <v>2</v>
-      </c>
-      <c r="M155" s="1" t="s">
+      <c r="M155" t="s">
+        <v>2</v>
+      </c>
+      <c r="N155" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N155" t="s">
+      <c r="O155" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>53</v>
       </c>
-      <c r="B157" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B158" t="s">
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>444</v>
       </c>
       <c r="C158" t="s">
-        <v>2</v>
-      </c>
-      <c r="D158" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F158" t="s">
         <v>442</v>
       </c>
-      <c r="E158" t="s">
-        <v>443</v>
-      </c>
-      <c r="F158" t="s">
-        <v>2</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K158" s="2"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G158" t="s">
+        <v>2</v>
+      </c>
+      <c r="H158" s="1"/>
+      <c r="L158" s="1"/>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>54</v>
       </c>
-      <c r="B160" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C161" t="s">
         <v>446</v>
       </c>
-      <c r="B161" t="s">
+      <c r="D161" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="C161" t="s">
-        <v>2</v>
-      </c>
-      <c r="D161" s="1" t="s">
+      <c r="F161" t="s">
         <v>448</v>
       </c>
-      <c r="E161" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>55</v>
       </c>
-      <c r="B163" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C164" t="s">
         <v>450</v>
       </c>
-      <c r="B164" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D164" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>56</v>
       </c>
-      <c r="B166" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>2</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C167" t="s">
+        <v>452</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2</v>
+      </c>
+      <c r="E167" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B167" t="s">
+      <c r="F167" t="s">
         <v>454</v>
       </c>
-      <c r="C167" t="s">
-        <v>2</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E167" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G167" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>57</v>
       </c>
-      <c r="B169" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>2</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C170" t="s">
+        <v>456</v>
+      </c>
+      <c r="D170" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C173" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
+      <c r="D173" t="s">
+        <v>2</v>
+      </c>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>2</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C176" t="s">
+        <v>460</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C179" t="s">
+        <v>462</v>
+      </c>
+      <c r="D179" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>2</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C182" t="s">
+        <v>464</v>
+      </c>
+      <c r="D182" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>2</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C185" t="s">
+        <v>466</v>
+      </c>
+      <c r="D185" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>2</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C188" t="s">
+        <v>468</v>
+      </c>
+      <c r="D188" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>2</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C191" t="s">
+        <v>470</v>
+      </c>
+      <c r="D191" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>2</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C194" t="s">
+        <v>472</v>
+      </c>
+      <c r="D194" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C197" t="s">
+        <v>474</v>
+      </c>
+      <c r="D197" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>2</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C200" t="s">
+        <v>476</v>
+      </c>
+      <c r="D200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C203" t="s">
+        <v>478</v>
+      </c>
+      <c r="D203" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C206" t="s">
+        <v>480</v>
+      </c>
+      <c r="D206" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C209" t="s">
+        <v>482</v>
+      </c>
+      <c r="D209" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C212" t="s">
+        <v>484</v>
+      </c>
+      <c r="D212" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>2</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C215" t="s">
+        <v>486</v>
+      </c>
+      <c r="D215" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>2</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C218" t="s">
+        <v>488</v>
+      </c>
+      <c r="D218" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C221" t="s">
+        <v>490</v>
+      </c>
+      <c r="D221" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>2</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C224" t="s">
+        <v>492</v>
+      </c>
+      <c r="D224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C227" t="s">
+        <v>494</v>
+      </c>
+      <c r="D227" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>2</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C230" t="s">
+        <v>496</v>
+      </c>
+      <c r="D230" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>2</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C233" t="s">
+        <v>498</v>
+      </c>
+      <c r="D233" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>2</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C236" t="s">
+        <v>500</v>
+      </c>
+      <c r="D236" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>2</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C239" t="s">
+        <v>502</v>
+      </c>
+      <c r="D239" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>2</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C242" t="s">
+        <v>504</v>
+      </c>
+      <c r="D242" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>6</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C245" t="s">
+        <v>506</v>
+      </c>
+      <c r="D245" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>2</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C248" t="s">
+        <v>508</v>
+      </c>
+      <c r="D248" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>2</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C251" t="s">
+        <v>510</v>
+      </c>
+      <c r="D251" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>6</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C254" t="s">
+        <v>512</v>
+      </c>
+      <c r="D254" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>2</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C257" t="s">
+        <v>514</v>
+      </c>
+      <c r="D257" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>6</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C260" t="s">
+        <v>516</v>
+      </c>
+      <c r="D260" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>6</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C263" t="s">
+        <v>518</v>
+      </c>
+      <c r="D263" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>6</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C266" t="s">
+        <v>520</v>
+      </c>
+      <c r="D266" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>2</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C269" t="s">
+        <v>522</v>
+      </c>
+      <c r="D269" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>2</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C272" t="s">
+        <v>524</v>
+      </c>
+      <c r="D272" t="s">
+        <v>2</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="F272" t="s">
+        <v>526</v>
+      </c>
+      <c r="G272" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4342,163 +5363,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AE7D5E-2186-C448-A1E5-0DDF8CE6D5C4}">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BC2D5A-3FC6-6540-B7B5-46E146075013}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2">
-        <v>320008</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>30427671</v>
-      </c>
-      <c r="B2" s="2">
-        <v>325017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="2">
-        <v>1259557</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>1263578</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <v>1289574</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <v>1292044</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <v>2409834</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
-        <v>2460974</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <v>3141653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
-        <v>3142099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <v>3713221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
-        <v>3713924</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
-        <v>3937792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
-        <v>3937969</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
-        <v>6148297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
-        <v>6168060</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
-        <v>7101977</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
-        <v>7111173</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
-        <v>7430677</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="2">
-        <v>7938864</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="2">
-        <v>7951591</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="2">
-        <v>8158843</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="2">
-        <v>8281530</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="2">
-        <v>9144178</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="2">
-        <v>9144305</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="2">
-        <v>12158764</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B26">
-    <sortCondition ref="B1:B26"/>
-  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>